--- a/municipal/განათლება/სკოლამდელი აღზრდისა და განათლების დაწესებულებები/სამცხე-ჯავახეთი/ადიგენის მუნიციპალიტეტი.xlsx
+++ b/municipal/განათლება/სკოლამდელი აღზრდისა და განათლების დაწესებულებები/სამცხე-ჯავახეთი/ადიგენის მუნიციპალიტეტი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატისტიკა\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\სამცხე-ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\განათლება\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\სამცხე-ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D43690-CECB-47F9-BACB-FAEF38673302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ადიგენი" sheetId="1" r:id="rId1"/>
@@ -140,10 +141,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="171" formatCode=".\ #;"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -304,29 +307,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -342,37 +339,26 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,11 +374,23 @@
     <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,97 +671,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" style="8" customWidth="1"/>
-    <col min="2" max="10" width="12.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" style="6" customWidth="1"/>
+    <col min="2" max="10" width="12.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="15" width="12" style="19" customWidth="1"/>
-    <col min="16" max="16" width="12" style="20" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="20"/>
+    <col min="12" max="16" width="12" style="14" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>9</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>10</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>10</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>10</v>
       </c>
       <c r="G4" s="4"/>
@@ -772,28 +766,28 @@
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-    </row>
-    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>476</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>558</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>588</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>495</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>480</v>
       </c>
       <c r="G5" s="4"/>
@@ -802,28 +796,28 @@
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>28</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>30</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>36</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>36</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>37</v>
       </c>
       <c r="G6" s="4"/>
@@ -832,28 +826,28 @@
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="30">
         <v>17</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="27">
         <v>18.600000000000001</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="27">
         <v>16.333333333333332</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="27">
         <v>13.75</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="30">
         <v>12.972972972972974</v>
       </c>
       <c r="G7" s="4"/>
@@ -862,115 +856,76 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-    </row>
-    <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="28">
         <v>29.193498926709598</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="28">
         <v>34.340574804603364</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="28">
         <v>36.444775009297139</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="28">
         <v>30.760626398210292</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="28">
         <v>30.154542027892951</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="29">
         <v>2038.125</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="29">
         <v>1805.4444444444443</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="29">
         <v>1613.3999999999999</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="29">
         <v>1609.2</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="29">
         <v>1591.8</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+    </row>
+    <row r="11" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -978,6 +933,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>